--- a/TP_1/tabla del tp.xlsx
+++ b/TP_1/tabla del tp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>{1-9}</t>
   </si>
@@ -31,7 +31,7 @@
     <t>a-f A-F</t>
   </si>
   <si>
-    <t>-</t>
+    <t>lambda</t>
   </si>
 </sst>
 </file>
@@ -373,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>0</v>
       </c>
@@ -400,8 +400,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -423,8 +426,11 @@
       <c r="H2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -446,8 +452,11 @@
       <c r="H3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -469,8 +478,11 @@
       <c r="H4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -492,8 +504,11 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -515,8 +530,11 @@
       <c r="H6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -538,28 +556,34 @@
       <c r="H7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
